--- a/biology/Médecine/1314_en_santé_et_médecine/1314_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1314_en_santé_et_médecine/1314_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1314_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1314_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1314 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1314_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1314_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Novembre : le chapitre des frères de Saint-Jean de Jérusalem récemment installés à Rhodes décide la construction d'un hôpital à l'intérieur du Collachion, dans le quartier de l'Arsenal[1].
-À Florence, les statuts de l'Arte dei Medici e Speziali, corporation des médecins et apothicaires reconnue dès 1266 et qualifiée d'« art majeur » depuis 1293, « autoris[ent] les apothicaires à avoir dans leur boutique des médecins pour soigner les malades[2] ».
-Fondation de l'hôpital d'Aubonne au pays de Vaud par le curé Jacques Marchiant[3].
-Fondation de l'hôpital Saint-Liénard à Amiens en Picardie, par Hugues Liénard le Sec, ancien maire de la ville[4].
-Fondation d'un hospice à Obernai, en Alsace[5].
-Une léproserie est mentionnée à Louth dans le Lincolnshire en Angleterre[6].
-Une pharmacie est attestée à Strasbourg, en Alsace, à l'enseigne de la Cigogne[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Novembre : le chapitre des frères de Saint-Jean de Jérusalem récemment installés à Rhodes décide la construction d'un hôpital à l'intérieur du Collachion, dans le quartier de l'Arsenal.
+À Florence, les statuts de l'Arte dei Medici e Speziali, corporation des médecins et apothicaires reconnue dès 1266 et qualifiée d'« art majeur » depuis 1293, « autoris[ent] les apothicaires à avoir dans leur boutique des médecins pour soigner les malades ».
+Fondation de l'hôpital d'Aubonne au pays de Vaud par le curé Jacques Marchiant.
+Fondation de l'hôpital Saint-Liénard à Amiens en Picardie, par Hugues Liénard le Sec, ancien maire de la ville.
+Fondation d'un hospice à Obernai, en Alsace.
+Une léproserie est mentionnée à Louth dans le Lincolnshire en Angleterre.
+Une pharmacie est attestée à Strasbourg, en Alsace, à l'enseigne de la Cigogne.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1314_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1314_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1313-1314 : Rashid al-Din (1247-1318), grand vizir et médecin du prince mongol Oldjaïtou, petit-fils de Gengis Khan, rédige l'introduction et dirige la publication en persan du  Tenksuq nameh (« Trésor de l'Ilkhan sur les sciences de Cathay »), premier des ouvrages à travers lesquels la médecine chinoise se fera connaître en Occident[8]'[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1313-1314 : Rashid al-Din (1247-1318), grand vizir et médecin du prince mongol Oldjaïtou, petit-fils de Gengis Khan, rédige l'introduction et dirige la publication en persan du  Tenksuq nameh (« Trésor de l'Ilkhan sur les sciences de Cathay »), premier des ouvrages à travers lesquels la médecine chinoise se fera connaître en Occident'.</t>
         </is>
       </c>
     </row>
